--- a/eLTSS to FHIR R4 element mapping_2019-01-29_simplified.xlsx
+++ b/eLTSS to FHIR R4 element mapping_2019-01-29_simplified.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E9EB1-5A10-4DDD-97F7-316AF4BA1444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0852B-99A1-4A8D-B58A-1B3FFB5513A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="75" windowWidth="27225" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="510" yWindow="75" windowWidth="27225" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eLTSS element mapping" sheetId="2" r:id="rId1"/>
@@ -33658,8 +33658,8 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
